--- a/biology/Médecine/Lily_Ehrenfried/Lily_Ehrenfried.xlsx
+++ b/biology/Médecine/Lily_Ehrenfried/Lily_Ehrenfried.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lydia Ehrenfried, mieux connue sous le prénom Lily, également écrit Lilly ou bien Lili (née le 20 août 1896 à Berlin et morte le 1er janvier 1994 à Yerres[1]) est une femme médecin, kinésithérapeute et fondatrice de la gymnastique holistique resp. somato-thérapie. Allemande d’origine juive, elle vécut à Paris depuis sa persécution par le régime national-socialiste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lydia Ehrenfried, mieux connue sous le prénom Lily, également écrit Lilly ou bien Lili (née le 20 août 1896 à Berlin et morte le 1er janvier 1994 à Yerres) est une femme médecin, kinésithérapeute et fondatrice de la gymnastique holistique resp. somato-thérapie. Allemande d’origine juive, elle vécut à Paris depuis sa persécution par le régime national-socialiste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l’obtention de la maturité, Ehrenfried suit tout d’abord une formation d’infirmière, puis poursuit des études de médecine pour travailler de 1926 à 1927 au service de médecine interne de l'hôpital de Moabit à Berlin. Ensuite, elle suit des formations continues en pédiatrie, orthopédie, kinésithérapie et médecine sportive. Depuis 1926, elle traite, des nourrissons et des enfants montrant des particularités physiques, en tant que professeur de gymnastique orthopédique en profession annexe. En 1928, elle s’installe en tant que médecin généraliste dans la Motzstraße, Berlin-Schöneberg.
 Elle s’engage en particulier pour le contrôle des naissances, un problème devenu urgent en raison du chômage et de la paupérisation des populations, et dirige, de 1929 à 1933, un service de consultation pour problèmes conjugaux et sexuels que la mairie du district Prenzlauer Berg a ouvert sur sa suggestion et qui dispense des informations sur les méthodes de contraception assorties d’une distribution gratuite de contraceptifs.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De l'éducation du corps à l'équilibre de l'esprit. Paris : Aubier 1956, réimprimé 1997.
 Version allemande : Körperliche Erziehung zum seelischen Gleichgewicht. Somato–Therapie, ein vergessener Heilfaktor. Berlin : Westliche Berliner Verlagsgesellschaft Heenemann KG 1957, deuxième édition remaniée et élargie 1967, réimprimée sous le titre : Atmen, Bewegen, Erkennen, 1986.
